--- a/experiments/finished exp/young-DSS-exp3/pcr_validation/RT-PCR B pseudolongum Primers2.xlsx
+++ b/experiments/finished exp/young-DSS-exp3/pcr_validation/RT-PCR B pseudolongum Primers2.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Chercheurs\Santos_Manuela\Thibault M\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thibault\Documents\CHUM_git\gut-microbiota-iron\experiments\finished exp\young-DSS-exp3\pcr_validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BD0DC6-851C-426F-88FE-71CF51F8AA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RT-PCR" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>RT-PCR</t>
   </si>
@@ -44,12 +56,6 @@
     <t>F.rod/16S</t>
   </si>
   <si>
-    <t>Bifidobacterium pseudolongum</t>
-  </si>
-  <si>
-    <t>B.psed/16S</t>
-  </si>
-  <si>
     <t>Mouse Stool DNA</t>
   </si>
   <si>
@@ -67,11 +73,23 @@
   <si>
     <t>Primers T.C.</t>
   </si>
+  <si>
+    <t>Bifidobacterium pseudolongum 1</t>
+  </si>
+  <si>
+    <t>B.psed/16S 1</t>
+  </si>
+  <si>
+    <t>Bifidobacterium pseudolongum 2</t>
+  </si>
+  <si>
+    <t>B.psed/16S 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -153,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -174,7 +192,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,7 +200,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,70 +479,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="G1" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="A3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -536,19 +552,19 @@
         <v>5</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>10971</v>
       </c>
@@ -577,7 +593,7 @@
         <v>4.0263569992130634E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>10996</v>
       </c>
@@ -606,7 +622,7 @@
         <v>6.8920344999345634E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>33106</v>
       </c>
@@ -635,7 +651,7 @@
         <v>2.2242471486966096E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>10960</v>
       </c>
@@ -664,7 +680,7 @@
         <v>5.0764128498366035E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>33107</v>
       </c>
@@ -693,7 +709,7 @@
         <v>0.10714257531777192</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>10959</v>
       </c>
@@ -722,7 +738,7 @@
         <v>4.1440529665407927E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>33114</v>
       </c>
@@ -751,7 +767,7 @@
         <v>6.5176749759023244E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10992</v>
       </c>
@@ -780,7 +796,7 @@
         <v>8.3213643447245696E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10998</v>
       </c>
@@ -809,7 +825,7 @@
         <v>0.1523584442120843</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>33117</v>
       </c>
@@ -838,7 +854,7 @@
         <v>7.4156718306927202E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>10999</v>
       </c>
@@ -867,7 +883,7 @@
         <v>1.2840841032205704E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>10967</v>
       </c>
@@ -896,7 +912,7 @@
         <v>1.8733958309453572E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>33101</v>
       </c>
@@ -925,8 +941,8 @@
         <v>1.8130907494171292E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>10977</v>
       </c>
       <c r="B18" s="2">
@@ -954,7 +970,7 @@
         <v>1.1190689433526127E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>10964</v>
       </c>
@@ -983,7 +999,7 @@
         <v>1.5120713928828114E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>10978</v>
       </c>
@@ -1012,7 +1028,7 @@
         <v>2.3566625913698971E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>10995</v>
       </c>
@@ -1041,7 +1057,7 @@
         <v>7.4176012185586282E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>33112</v>
       </c>
@@ -1070,7 +1086,7 @@
         <v>7.8241148065093816E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>33108</v>
       </c>
@@ -1099,7 +1115,7 @@
         <v>8.0459950600190761E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>10991</v>
       </c>
@@ -1128,7 +1144,7 @@
         <v>0.12837441729530588</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>33109</v>
       </c>
@@ -1157,7 +1173,7 @@
         <v>1.45829493235508E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>10990</v>
       </c>
@@ -1186,7 +1202,7 @@
         <v>1.7924982514530768E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>33115</v>
       </c>
@@ -1215,7 +1231,7 @@
         <v>1.7138259800063449E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>10997</v>
       </c>
@@ -1244,7 +1260,7 @@
         <v>1.5323946426911322E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>33103</v>
       </c>
@@ -1273,7 +1289,7 @@
         <v>2.1379751914544113E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>10956</v>
       </c>
@@ -1302,7 +1318,7 @@
         <v>3.752204670119539E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>10947</v>
       </c>
@@ -1331,7 +1347,7 @@
         <v>2.4202040206629916E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>10957</v>
       </c>
@@ -1360,7 +1376,7 @@
         <v>7.709096585202687E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>33102</v>
       </c>
@@ -1389,7 +1405,7 @@
         <v>1.7643488157857837E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>10958</v>
       </c>
@@ -1418,7 +1434,7 @@
         <v>1.4729693635412808E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>10979</v>
       </c>
@@ -1447,7 +1463,7 @@
         <v>2.7601127233564712E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>10965</v>
       </c>
@@ -1476,7 +1492,7 @@
         <v>9.9398336268362013E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>10968</v>
       </c>
@@ -1505,7 +1521,7 @@
         <v>3.7989104087914061E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>33113</v>
       </c>
@@ -1534,7 +1550,7 @@
         <v>3.5005980445942358E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>33111</v>
       </c>
@@ -1563,7 +1579,7 @@
         <v>5.4849279096174534E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>10970</v>
       </c>
@@ -1592,7 +1608,7 @@
         <v>5.6305092604410932E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>33110</v>
       </c>
@@ -1621,7 +1637,7 @@
         <v>3.2375275367041156E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>10993</v>
       </c>
@@ -1650,7 +1666,7 @@
         <v>2.3950589188729155E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>10961</v>
       </c>
@@ -1679,7 +1695,7 @@
         <v>2.5630246461230247E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>10964</v>
       </c>
@@ -1708,7 +1724,7 @@
         <v>1.7745261970995345E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>33118</v>
       </c>
@@ -1737,7 +1753,7 @@
         <v>3.4540571613554255E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>10976</v>
       </c>
@@ -1766,7 +1782,7 @@
         <v>2.2705790165421416E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>11000</v>
       </c>
@@ -1795,7 +1811,7 @@
         <v>2.1220810025326574E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>10975</v>
       </c>
@@ -1824,7 +1840,7 @@
         <v>2.788438356216277E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>10966</v>
       </c>
@@ -1853,7 +1869,7 @@
         <v>1.6062088719312237E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>10946</v>
       </c>
@@ -1882,7 +1898,7 @@
         <v>1.1648015438709044E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>33105</v>
       </c>
